--- a/yieldFiles/A1/a1_det1.xlsx
+++ b/yieldFiles/A1/a1_det1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C691"/>
+  <dimension ref="A1:C831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,10 +2110,10 @@
         <v>2.48392</v>
       </c>
       <c r="B159" t="n">
-        <v>6.7613211e-13</v>
+        <v>1.87912998e-12</v>
       </c>
       <c r="C159" t="n">
-        <v>1.114756506e-14</v>
+        <v>1.554710562e-14</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>2.48392</v>
       </c>
       <c r="B160" t="n">
-        <v>1.87912998e-12</v>
+        <v>6.7613211e-13</v>
       </c>
       <c r="C160" t="n">
-        <v>1.554710562e-14</v>
+        <v>1.114756506e-14</v>
       </c>
     </row>
     <row r="161">
@@ -2154,10 +2154,10 @@
         <v>2.48496</v>
       </c>
       <c r="B163" t="n">
-        <v>7.155781560000002e-13</v>
+        <v>4.870881e-13</v>
       </c>
       <c r="C163" t="n">
-        <v>9.792160919999999e-15</v>
+        <v>7.205491620000001e-15</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>2.48496</v>
       </c>
       <c r="B164" t="n">
-        <v>4.870881e-13</v>
+        <v>7.155781560000002e-13</v>
       </c>
       <c r="C164" t="n">
-        <v>7.205491620000001e-15</v>
+        <v>9.792160919999999e-15</v>
       </c>
     </row>
     <row r="165">
@@ -3375,10 +3375,10 @@
         <v>2.71393</v>
       </c>
       <c r="B274" t="n">
-        <v>1.86237306e-13</v>
+        <v>2.21223384e-13</v>
       </c>
       <c r="C274" t="n">
-        <v>7.4083689e-15</v>
+        <v>6.13884798e-15</v>
       </c>
     </row>
     <row r="275">
@@ -3386,10 +3386,10 @@
         <v>2.71393</v>
       </c>
       <c r="B275" t="n">
-        <v>2.21223384e-13</v>
+        <v>1.86237306e-13</v>
       </c>
       <c r="C275" t="n">
-        <v>6.13884798e-15</v>
+        <v>7.4083689e-15</v>
       </c>
     </row>
     <row r="276">
@@ -4035,10 +4035,10 @@
         <v>2.73695</v>
       </c>
       <c r="B334" t="n">
-        <v>3.24454662e-12</v>
+        <v>3.17136726e-12</v>
       </c>
       <c r="C334" t="n">
-        <v>2.35936152e-14</v>
+        <v>1.115443764e-14</v>
       </c>
     </row>
     <row r="335">
@@ -4046,10 +4046,10 @@
         <v>2.73695</v>
       </c>
       <c r="B335" t="n">
-        <v>3.17136726e-12</v>
+        <v>3.24454662e-12</v>
       </c>
       <c r="C335" t="n">
-        <v>1.115443764e-14</v>
+        <v>2.35936152e-14</v>
       </c>
     </row>
     <row r="336">
@@ -4475,10 +4475,10 @@
         <v>2.75391</v>
       </c>
       <c r="B374" t="n">
-        <v>1.518314724e-13</v>
+        <v>1.235266956e-13</v>
       </c>
       <c r="C374" t="n">
-        <v>4.06420992e-15</v>
+        <v>6.15078288e-15</v>
       </c>
     </row>
     <row r="375">
@@ -4486,10 +4486,10 @@
         <v>2.75391</v>
       </c>
       <c r="B375" t="n">
-        <v>1.235266956e-13</v>
+        <v>1.518314724e-13</v>
       </c>
       <c r="C375" t="n">
-        <v>6.15078288e-15</v>
+        <v>4.06420992e-15</v>
       </c>
     </row>
     <row r="376">
@@ -5297,2675 +5297,4215 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B449" t="n">
-        <v>1.76202378e-13</v>
+        <v>2.08184706e-13</v>
       </c>
       <c r="C449" t="n">
-        <v>7.26045624e-15</v>
+        <v>5.99681466e-15</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B450" t="n">
-        <v>1.73081682e-13</v>
+        <v>1.76202378e-13</v>
       </c>
       <c r="C450" t="n">
-        <v>8.573247180000001e-15</v>
+        <v>7.26045624e-15</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B451" t="n">
-        <v>3.05158572e-13</v>
+        <v>1.73081682e-13</v>
       </c>
       <c r="C451" t="n">
-        <v>7.571820960000001e-15</v>
+        <v>8.573247180000001e-15</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B452" t="n">
-        <v>2.25997344e-13</v>
+        <v>2.91238794e-13</v>
       </c>
       <c r="C452" t="n">
-        <v>8.662014e-15</v>
+        <v>1.40899905e-14</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B453" t="n">
-        <v>2.88044406e-13</v>
+        <v>3.05158572e-13</v>
       </c>
       <c r="C453" t="n">
-        <v>9.43709364e-15</v>
+        <v>7.571820960000001e-15</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B454" t="n">
-        <v>3.649980780000001e-13</v>
+        <v>2.25997344e-13</v>
       </c>
       <c r="C454" t="n">
-        <v>1.112914206e-14</v>
+        <v>8.662014e-15</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B455" t="n">
-        <v>3.34303758e-13</v>
+        <v>2.88044406e-13</v>
       </c>
       <c r="C455" t="n">
-        <v>1.144994256e-14</v>
+        <v>9.43709364e-15</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B456" t="n">
-        <v>3.41552808e-13</v>
+        <v>3.649980780000001e-13</v>
       </c>
       <c r="C456" t="n">
-        <v>1.062313434e-14</v>
+        <v>1.112914206e-14</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B457" t="n">
-        <v>3.67280928e-13</v>
+        <v>3.07907604e-13</v>
       </c>
       <c r="C457" t="n">
-        <v>1.226681838e-14</v>
+        <v>1.47399219e-14</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B458" t="n">
-        <v>3.65291244e-13</v>
+        <v>3.34303758e-13</v>
       </c>
       <c r="C458" t="n">
-        <v>1.444276692e-14</v>
+        <v>1.144994256e-14</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B459" t="n">
-        <v>3.24946476e-13</v>
+        <v>3.41552808e-13</v>
       </c>
       <c r="C459" t="n">
-        <v>9.94298922e-15</v>
+        <v>1.062313434e-14</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B460" t="n">
-        <v>3.32064162e-13</v>
+        <v>3.67280928e-13</v>
       </c>
       <c r="C460" t="n">
-        <v>1.159160742e-14</v>
+        <v>1.226681838e-14</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B461" t="n">
-        <v>3.14932374e-13</v>
+        <v>3.65291244e-13</v>
       </c>
       <c r="C461" t="n">
-        <v>1.149577578e-14</v>
+        <v>1.444276692e-14</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B462" t="n">
-        <v>2.1932181e-13</v>
+        <v>2.58157494e-13</v>
       </c>
       <c r="C462" t="n">
-        <v>7.79411448e-15</v>
+        <v>1.94617368e-14</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B463" t="n">
-        <v>2.53755198e-13</v>
+        <v>3.24946476e-13</v>
       </c>
       <c r="C463" t="n">
-        <v>1.183839552e-14</v>
+        <v>9.94298922e-15</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B464" t="n">
-        <v>2.21585436e-13</v>
+        <v>3.32064162e-13</v>
       </c>
       <c r="C464" t="n">
-        <v>1.231494246e-14</v>
+        <v>1.159160742e-14</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B465" t="n">
-        <v>1.478256714e-13</v>
+        <v>3.14932374e-13</v>
       </c>
       <c r="C465" t="n">
-        <v>4.93476876e-15</v>
+        <v>1.149577578e-14</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B466" t="n">
-        <v>1.585533042e-13</v>
+        <v>2.1932181e-13</v>
       </c>
       <c r="C466" t="n">
-        <v>3.73176288e-15</v>
+        <v>7.79411448e-15</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B467" t="n">
-        <v>1.17444222e-13</v>
+        <v>2.53755198e-13</v>
       </c>
       <c r="C467" t="n">
-        <v>5.068167299999999e-15</v>
+        <v>1.183839552e-14</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B468" t="n">
-        <v>1.79444826e-13</v>
+        <v>1.83014082e-13</v>
       </c>
       <c r="C468" t="n">
-        <v>7.8687036e-15</v>
+        <v>1.094928552e-14</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B469" t="n">
-        <v>2.26615716e-13</v>
+        <v>2.21585436e-13</v>
       </c>
       <c r="C469" t="n">
-        <v>1.010216394e-14</v>
+        <v>1.231494246e-14</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87584</v>
       </c>
       <c r="B470" t="n">
-        <v>1.90513044e-13</v>
+        <v>1.478256714e-13</v>
       </c>
       <c r="C470" t="n">
-        <v>6.10371612e-15</v>
+        <v>4.93476876e-15</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87591</v>
       </c>
       <c r="B471" t="n">
-        <v>1.68182766e-13</v>
+        <v>1.450700712e-13</v>
       </c>
       <c r="C471" t="n">
-        <v>5.34965472e-15</v>
+        <v>1.366220844e-14</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>2.88082</v>
+        <v>2.87602</v>
       </c>
       <c r="B472" t="n">
-        <v>8.885653200000001e-14</v>
+        <v>1.585533042e-13</v>
       </c>
       <c r="C472" t="n">
-        <v>7.231860540000001e-15</v>
+        <v>3.73176288e-15</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87685</v>
       </c>
       <c r="B473" t="n">
-        <v>7.14823614e-14</v>
+        <v>1.99966446e-13</v>
       </c>
       <c r="C473" t="n">
-        <v>4.49594892e-15</v>
+        <v>1.82261142e-14</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87699</v>
       </c>
       <c r="B474" t="n">
-        <v>1.76537196e-13</v>
+        <v>1.17444222e-13</v>
       </c>
       <c r="C474" t="n">
-        <v>6.512258159999999e-15</v>
+        <v>5.068167299999999e-15</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87795</v>
       </c>
       <c r="B475" t="n">
-        <v>2.79947898e-13</v>
+        <v>1.79444826e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>8.83249884e-15</v>
+        <v>7.8687036e-15</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87802</v>
       </c>
       <c r="B476" t="n">
-        <v>1.417456008e-12</v>
+        <v>2.37813696e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>3.5093412e-14</v>
+        <v>8.725276980000001e-15</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B477" t="n">
-        <v>2.18458332e-12</v>
+        <v>1.414038942e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>2.34438282e-14</v>
+        <v>9.504441719999999e-15</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87894</v>
       </c>
       <c r="B478" t="n">
-        <v>2.39144958e-12</v>
+        <v>1.90513044e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>3.43119564e-14</v>
+        <v>6.10371612e-15</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B479" t="n">
-        <v>1.200431466e-12</v>
+        <v>2.26615716e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>3.17505186e-14</v>
+        <v>1.010216394e-14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87999</v>
       </c>
       <c r="B480" t="n">
-        <v>2.29033134e-12</v>
+        <v>1.68182766e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>3.37323528e-14</v>
+        <v>5.34965472e-15</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.88082</v>
       </c>
       <c r="B481" t="n">
-        <v>1.462646826e-12</v>
+        <v>8.885653200000001e-14</v>
       </c>
       <c r="C481" t="n">
-        <v>3.63027618e-14</v>
+        <v>7.231860540000001e-15</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88098</v>
       </c>
       <c r="B482" t="n">
-        <v>5.99599764e-13</v>
+        <v>9.40380408e-14</v>
       </c>
       <c r="C482" t="n">
-        <v>1.589009382e-14</v>
+        <v>9.28833192e-15</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.88879</v>
       </c>
       <c r="B483" t="n">
-        <v>3.64346064e-13</v>
+        <v>7.14823614e-14</v>
       </c>
       <c r="C483" t="n">
-        <v>7.85442978e-15</v>
+        <v>4.49594892e-15</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.90444</v>
       </c>
       <c r="B484" t="n">
-        <v>2.84792346e-13</v>
+        <v>1.76537196e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>8.784358739999999e-15</v>
+        <v>6.512258159999999e-15</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90481</v>
       </c>
       <c r="B485" t="n">
-        <v>2.14477362e-13</v>
+        <v>2.79947898e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>5.28342804e-15</v>
+        <v>8.83249884e-15</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90576</v>
       </c>
       <c r="B486" t="n">
-        <v>1.64986776e-13</v>
+        <v>1.417456008e-12</v>
       </c>
       <c r="C486" t="n">
-        <v>4.9263903e-15</v>
+        <v>3.5093412e-14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90595</v>
       </c>
       <c r="B487" t="n">
-        <v>1.403089272e-13</v>
+        <v>2.18458332e-12</v>
       </c>
       <c r="C487" t="n">
-        <v>4.75539282e-15</v>
+        <v>2.34438282e-14</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90595</v>
       </c>
       <c r="B488" t="n">
-        <v>1.200300102e-13</v>
+        <v>2.39144958e-12</v>
       </c>
       <c r="C488" t="n">
-        <v>4.40537184e-15</v>
+        <v>3.43119564e-14</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90644</v>
       </c>
       <c r="B489" t="n">
-        <v>9.31213764e-14</v>
+        <v>1.200431466e-12</v>
       </c>
       <c r="C489" t="n">
-        <v>3.88907928e-15</v>
+        <v>3.17505186e-14</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90675</v>
       </c>
       <c r="B490" t="n">
-        <v>7.700974200000001e-14</v>
+        <v>2.29033134e-12</v>
       </c>
       <c r="C490" t="n">
-        <v>4.04102898e-15</v>
+        <v>3.37323528e-14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90706</v>
       </c>
       <c r="B491" t="n">
-        <v>7.77543516e-14</v>
+        <v>1.462646826e-12</v>
       </c>
       <c r="C491" t="n">
-        <v>3.50105886e-15</v>
+        <v>3.63027618e-14</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90739</v>
       </c>
       <c r="B492" t="n">
-        <v>7.706084580000001e-14</v>
+        <v>5.99599764e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>3.34388664e-15</v>
+        <v>1.589009382e-14</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.90788</v>
       </c>
       <c r="B493" t="n">
-        <v>1.221470532e-13</v>
+        <v>3.64346064e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>5.40753498e-15</v>
+        <v>7.85442978e-15</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.9085</v>
       </c>
       <c r="B494" t="n">
-        <v>2.78097588e-13</v>
+        <v>2.84792346e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>7.74720792e-15</v>
+        <v>8.784358739999999e-15</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.90904</v>
       </c>
       <c r="B495" t="n">
-        <v>1.0318482e-12</v>
+        <v>2.14477362e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>1.80947502e-14</v>
+        <v>5.28342804e-15</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.90949</v>
       </c>
       <c r="B496" t="n">
-        <v>1.093135914e-12</v>
+        <v>1.64986776e-13</v>
       </c>
       <c r="C496" t="n">
-        <v>1.58247162e-14</v>
+        <v>4.9263903e-15</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.91001</v>
       </c>
       <c r="B497" t="n">
-        <v>9.26314848e-13</v>
+        <v>1.403089272e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>2.0482371e-14</v>
+        <v>4.75539282e-15</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.91027</v>
       </c>
       <c r="B498" t="n">
-        <v>6.2411517e-13</v>
+        <v>1.200300102e-13</v>
       </c>
       <c r="C498" t="n">
-        <v>1.465817184e-14</v>
+        <v>4.40537184e-15</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.9115</v>
       </c>
       <c r="B499" t="n">
-        <v>3.81530718e-13</v>
+        <v>9.31213764e-14</v>
       </c>
       <c r="C499" t="n">
-        <v>1.03797585e-14</v>
+        <v>3.88907928e-15</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.91247</v>
       </c>
       <c r="B500" t="n">
-        <v>1.76010138e-13</v>
+        <v>7.700974200000001e-14</v>
       </c>
       <c r="C500" t="n">
-        <v>5.400390060000002e-15</v>
+        <v>4.04102898e-15</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91341</v>
       </c>
       <c r="B501" t="n">
-        <v>1.501601058e-13</v>
+        <v>7.77543516e-14</v>
       </c>
       <c r="C501" t="n">
-        <v>4.51456416e-15</v>
+        <v>3.50105886e-15</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91393</v>
       </c>
       <c r="B502" t="n">
-        <v>9.4847211e-14</v>
+        <v>7.706084580000001e-14</v>
       </c>
       <c r="C502" t="n">
-        <v>2.46663144e-15</v>
+        <v>3.34388664e-15</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91445</v>
       </c>
       <c r="B503" t="n">
-        <v>7.9568136e-14</v>
+        <v>1.221470532e-13</v>
       </c>
       <c r="C503" t="n">
-        <v>3.55461372e-15</v>
+        <v>5.40753498e-15</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91504</v>
       </c>
       <c r="B504" t="n">
-        <v>6.76841796e-14</v>
+        <v>2.78097588e-13</v>
       </c>
       <c r="C504" t="n">
-        <v>2.13916662e-15</v>
+        <v>7.74720792e-15</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91537</v>
       </c>
       <c r="B505" t="n">
-        <v>6.280160400000001e-14</v>
+        <v>1.0318482e-12</v>
       </c>
       <c r="C505" t="n">
-        <v>2.11523274e-15</v>
+        <v>1.80947502e-14</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91549</v>
       </c>
       <c r="B506" t="n">
-        <v>5.57934948e-14</v>
+        <v>1.093135914e-12</v>
       </c>
       <c r="C506" t="n">
-        <v>1.9559619e-15</v>
+        <v>1.58247162e-14</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91566</v>
       </c>
       <c r="B507" t="n">
-        <v>5.21612802e-14</v>
+        <v>9.26314848e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>2.09988558e-15</v>
+        <v>2.0482371e-14</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91585</v>
       </c>
       <c r="B508" t="n">
-        <v>4.93134048e-14</v>
+        <v>6.2411517e-13</v>
       </c>
       <c r="C508" t="n">
-        <v>2.05461306e-15</v>
+        <v>1.465817184e-14</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91604</v>
       </c>
       <c r="B509" t="n">
-        <v>5.16569706e-14</v>
+        <v>3.81530718e-13</v>
       </c>
       <c r="C509" t="n">
-        <v>2.262825e-15</v>
+        <v>1.03797585e-14</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91648</v>
       </c>
       <c r="B510" t="n">
-        <v>4.84890156e-14</v>
+        <v>1.76010138e-13</v>
       </c>
       <c r="C510" t="n">
-        <v>2.10912912e-15</v>
+        <v>5.400390060000002e-15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91693</v>
       </c>
       <c r="B511" t="n">
-        <v>5.0396517e-14</v>
+        <v>1.501601058e-13</v>
       </c>
       <c r="C511" t="n">
-        <v>2.31436134e-15</v>
+        <v>4.51456416e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91745</v>
       </c>
       <c r="B512" t="n">
-        <v>4.40649324e-14</v>
+        <v>9.4847211e-14</v>
       </c>
       <c r="C512" t="n">
-        <v>2.15265546e-15</v>
+        <v>2.46663144e-15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.91793</v>
       </c>
       <c r="B513" t="n">
-        <v>4.689054e-14</v>
+        <v>7.9568136e-14</v>
       </c>
       <c r="C513" t="n">
-        <v>2.56595544e-15</v>
+        <v>3.55461372e-15</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.9184</v>
       </c>
       <c r="B514" t="n">
-        <v>4.70488176e-14</v>
+        <v>6.76841796e-14</v>
       </c>
       <c r="C514" t="n">
-        <v>2.39801778e-15</v>
+        <v>2.13916662e-15</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.91892</v>
       </c>
       <c r="B515" t="n">
-        <v>4.64902002e-14</v>
+        <v>6.280160400000001e-14</v>
       </c>
       <c r="C515" t="n">
-        <v>2.33469072e-15</v>
+        <v>2.11523274e-15</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91946</v>
       </c>
       <c r="B516" t="n">
-        <v>4.4029368e-14</v>
+        <v>5.57934948e-14</v>
       </c>
       <c r="C516" t="n">
-        <v>2.53606212e-15</v>
+        <v>1.9559619e-15</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.91991</v>
       </c>
       <c r="B517" t="n">
-        <v>6.365002319999999e-14</v>
+        <v>5.21612802e-14</v>
       </c>
       <c r="C517" t="n">
-        <v>2.60792784e-15</v>
+        <v>2.09988558e-15</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.92043</v>
       </c>
       <c r="B518" t="n">
-        <v>1.265669712e-13</v>
+        <v>4.93134048e-14</v>
       </c>
       <c r="C518" t="n">
-        <v>3.34792368e-15</v>
+        <v>2.05461306e-15</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92084</v>
       </c>
       <c r="B519" t="n">
-        <v>1.38977505e-13</v>
+        <v>5.16569706e-14</v>
       </c>
       <c r="C519" t="n">
-        <v>3.66548814e-15</v>
+        <v>2.262825e-15</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.92143</v>
       </c>
       <c r="B520" t="n">
-        <v>1.003329396e-13</v>
+        <v>4.84890156e-14</v>
       </c>
       <c r="C520" t="n">
-        <v>3.00600882e-15</v>
+        <v>2.10912912e-15</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.9219</v>
       </c>
       <c r="B521" t="n">
-        <v>1.099103364e-13</v>
+        <v>5.0396517e-14</v>
       </c>
       <c r="C521" t="n">
-        <v>3.47079708e-15</v>
+        <v>2.31436134e-15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.92247</v>
       </c>
       <c r="B522" t="n">
-        <v>1.412247906e-13</v>
+        <v>4.40649324e-14</v>
       </c>
       <c r="C522" t="n">
-        <v>3.92294556e-15</v>
+        <v>2.15265546e-15</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92297</v>
       </c>
       <c r="B523" t="n">
-        <v>2.21152896e-13</v>
+        <v>4.689054e-14</v>
       </c>
       <c r="C523" t="n">
-        <v>8.584333019999999e-15</v>
+        <v>2.56595544e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92346</v>
       </c>
       <c r="B524" t="n">
-        <v>2.76734286e-13</v>
+        <v>4.70488176e-14</v>
       </c>
       <c r="C524" t="n">
-        <v>7.350616800000001e-15</v>
+        <v>2.39801778e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92583</v>
       </c>
       <c r="B525" t="n">
-        <v>3.47252724e-13</v>
+        <v>4.64902002e-14</v>
       </c>
       <c r="C525" t="n">
-        <v>7.553045520000001e-15</v>
+        <v>2.33469072e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.92979</v>
       </c>
       <c r="B526" t="n">
-        <v>5.057177580000001e-13</v>
+        <v>4.4029368e-14</v>
       </c>
       <c r="C526" t="n">
-        <v>1.024035246e-14</v>
+        <v>2.53606212e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.93966</v>
       </c>
       <c r="B527" t="n">
-        <v>6.9203997e-13</v>
+        <v>6.365002319999999e-14</v>
       </c>
       <c r="C527" t="n">
-        <v>9.34279992e-15</v>
+        <v>2.60792784e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.95006</v>
       </c>
       <c r="B528" t="n">
-        <v>8.417212380000001e-13</v>
+        <v>1.265669712e-13</v>
       </c>
       <c r="C528" t="n">
-        <v>1.47304701e-14</v>
+        <v>3.34792368e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.9597</v>
       </c>
       <c r="B529" t="n">
-        <v>8.90522964e-13</v>
+        <v>1.38977505e-13</v>
       </c>
       <c r="C529" t="n">
-        <v>1.521353718e-14</v>
+        <v>3.66548814e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.96984</v>
       </c>
       <c r="B530" t="n">
-        <v>9.804015719999999e-13</v>
+        <v>1.003329396e-13</v>
       </c>
       <c r="C530" t="n">
-        <v>1.60227234e-14</v>
+        <v>3.00600882e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.97074</v>
       </c>
       <c r="B531" t="n">
-        <v>1.051626492e-12</v>
+        <v>9.785784960000001e-14</v>
       </c>
       <c r="C531" t="n">
-        <v>1.424886084e-14</v>
+        <v>7.46890848e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.97979</v>
       </c>
       <c r="B532" t="n">
-        <v>1.124866728e-12</v>
+        <v>1.099103364e-13</v>
       </c>
       <c r="C532" t="n">
-        <v>1.6884279e-14</v>
+        <v>3.47079708e-15</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.98023</v>
       </c>
       <c r="B533" t="n">
-        <v>1.131040836e-12</v>
+        <v>9.33680844e-14</v>
       </c>
       <c r="C533" t="n">
-        <v>1.472882004e-14</v>
+        <v>5.8430547e-15</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.98967</v>
       </c>
       <c r="B534" t="n">
-        <v>1.180805364e-12</v>
+        <v>1.412247906e-13</v>
       </c>
       <c r="C534" t="n">
-        <v>1.6346007e-14</v>
+        <v>3.92294556e-15</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.99092</v>
       </c>
       <c r="B535" t="n">
-        <v>1.19017386e-12</v>
+        <v>1.565999856e-13</v>
       </c>
       <c r="C535" t="n">
-        <v>1.62553338e-14</v>
+        <v>7.864217999999999e-15</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99494</v>
       </c>
       <c r="B536" t="n">
-        <v>1.143177588e-12</v>
+        <v>1.87607016e-13</v>
       </c>
       <c r="C536" t="n">
-        <v>1.60340976e-14</v>
+        <v>8.70861618e-15</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.99885</v>
       </c>
       <c r="B537" t="n">
-        <v>1.012739544e-12</v>
+        <v>2.21152896e-13</v>
       </c>
       <c r="C537" t="n">
-        <v>1.457425908e-14</v>
+        <v>8.584333019999999e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.9989</v>
       </c>
       <c r="B538" t="n">
-        <v>8.877130560000001e-13</v>
+        <v>2.40298398e-13</v>
       </c>
       <c r="C538" t="n">
-        <v>1.5735645e-14</v>
+        <v>1.171092438e-14</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.99991</v>
       </c>
       <c r="B539" t="n">
-        <v>7.78511124e-13</v>
+        <v>2.70044334e-13</v>
       </c>
       <c r="C539" t="n">
-        <v>1.121206158e-14</v>
+        <v>1.08246339e-14</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>3.01607</v>
+        <v>2.99993</v>
       </c>
       <c r="B540" t="n">
-        <v>6.62068152e-13</v>
+        <v>2.76734286e-13</v>
       </c>
       <c r="C540" t="n">
-        <v>1.02357387e-14</v>
+        <v>7.350616800000001e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>3.0165</v>
+        <v>3.00139</v>
       </c>
       <c r="B541" t="n">
-        <v>5.94249084e-13</v>
+        <v>2.92576464e-13</v>
       </c>
       <c r="C541" t="n">
-        <v>1.09307664e-14</v>
+        <v>7.1571753e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00252</v>
       </c>
       <c r="B542" t="n">
-        <v>5.07159558e-13</v>
+        <v>3.20212566e-13</v>
       </c>
       <c r="C542" t="n">
-        <v>9.04042242e-15</v>
+        <v>9.059005619999999e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00336</v>
       </c>
       <c r="B543" t="n">
-        <v>4.6969839e-13</v>
+        <v>3.4185879e-13</v>
       </c>
       <c r="C543" t="n">
-        <v>7.5504663e-15</v>
+        <v>1.19205621e-14</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00403</v>
       </c>
       <c r="B544" t="n">
-        <v>4.09754754e-13</v>
+        <v>3.47252724e-13</v>
       </c>
       <c r="C544" t="n">
-        <v>7.79703012e-15</v>
+        <v>7.553045520000001e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.00434</v>
       </c>
       <c r="B545" t="n">
-        <v>3.8520891e-13</v>
+        <v>3.65308866e-13</v>
       </c>
       <c r="C545" t="n">
-        <v>1.00955637e-14</v>
+        <v>1.319858964e-14</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.0055</v>
       </c>
       <c r="B546" t="n">
-        <v>3.8222118e-13</v>
+        <v>4.3288443e-13</v>
       </c>
       <c r="C546" t="n">
-        <v>9.98698014e-15</v>
+        <v>8.14588164e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.00638</v>
       </c>
       <c r="B547" t="n">
-        <v>3.18323808e-13</v>
+        <v>4.49735868e-13</v>
       </c>
       <c r="C547" t="n">
-        <v>1.000811052e-14</v>
+        <v>8.491561199999998e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00754</v>
       </c>
       <c r="B548" t="n">
-        <v>2.45189304e-13</v>
+        <v>5.16463974e-13</v>
       </c>
       <c r="C548" t="n">
-        <v>8.79584508e-15</v>
+        <v>8.57730024e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00807</v>
       </c>
       <c r="B549" t="n">
-        <v>1.93662576e-13</v>
+        <v>5.057177580000001e-13</v>
       </c>
       <c r="C549" t="n">
-        <v>7.891115580000001e-15</v>
+        <v>1.024035246e-14</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00843</v>
       </c>
       <c r="B550" t="n">
-        <v>1.89393246e-13</v>
+        <v>5.666161860000001e-13</v>
       </c>
       <c r="C550" t="n">
-        <v>7.529752440000001e-15</v>
+        <v>9.31788882e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.00955</v>
       </c>
       <c r="B551" t="n">
-        <v>2.09655342e-13</v>
+        <v>6.93523422e-13</v>
       </c>
       <c r="C551" t="n">
-        <v>6.11247906e-15</v>
+        <v>1.211453226e-14</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.033</v>
+        <v>3.01001</v>
       </c>
       <c r="B552" t="n">
-        <v>2.3425245e-13</v>
+        <v>6.9203997e-13</v>
       </c>
       <c r="C552" t="n">
-        <v>8.7160014e-15</v>
+        <v>9.34279992e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01047</v>
       </c>
       <c r="B553" t="n">
-        <v>2.54743632e-13</v>
+        <v>8.2490985e-13</v>
       </c>
       <c r="C553" t="n">
-        <v>8.589555539999999e-15</v>
+        <v>1.1267667e-14</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01128</v>
       </c>
       <c r="B554" t="n">
-        <v>2.9693871e-13</v>
+        <v>8.417212380000001e-13</v>
       </c>
       <c r="C554" t="n">
-        <v>7.889321340000001e-15</v>
+        <v>1.47304701e-14</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01174</v>
       </c>
       <c r="B555" t="n">
-        <v>4.105909980000001e-13</v>
+        <v>8.90522964e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>7.513636319999999e-15</v>
+        <v>1.521353718e-14</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01205</v>
       </c>
       <c r="B556" t="n">
-        <v>5.843295e-13</v>
+        <v>9.804015719999999e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>1.11337398e-14</v>
+        <v>1.60227234e-14</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01229</v>
       </c>
       <c r="B557" t="n">
-        <v>1.008016848e-12</v>
+        <v>1.051626492e-12</v>
       </c>
       <c r="C557" t="n">
-        <v>1.72581858e-14</v>
+        <v>1.424886084e-14</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01249</v>
       </c>
       <c r="B558" t="n">
-        <v>1.395428508e-12</v>
+        <v>1.124866728e-12</v>
       </c>
       <c r="C558" t="n">
-        <v>2.02883688e-14</v>
+        <v>1.6884279e-14</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01268</v>
       </c>
       <c r="B559" t="n">
-        <v>5.729585039999999e-13</v>
+        <v>1.131040836e-12</v>
       </c>
       <c r="C559" t="n">
-        <v>1.302235362e-14</v>
+        <v>1.472882004e-14</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01299</v>
       </c>
       <c r="B560" t="n">
-        <v>3.33414648e-13</v>
+        <v>1.180805364e-12</v>
       </c>
       <c r="C560" t="n">
-        <v>9.93749436e-15</v>
+        <v>1.6346007e-14</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01352</v>
       </c>
       <c r="B561" t="n">
-        <v>2.92243248e-13</v>
+        <v>1.19017386e-12</v>
       </c>
       <c r="C561" t="n">
-        <v>1.01276838e-14</v>
+        <v>1.62553338e-14</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01388</v>
       </c>
       <c r="B562" t="n">
-        <v>2.67034176e-13</v>
+        <v>1.143177588e-12</v>
       </c>
       <c r="C562" t="n">
-        <v>9.6915393e-15</v>
+        <v>1.60340976e-14</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01436</v>
       </c>
       <c r="B563" t="n">
-        <v>2.77653834e-13</v>
+        <v>1.012739544e-12</v>
       </c>
       <c r="C563" t="n">
-        <v>7.49763234e-15</v>
+        <v>1.457425908e-14</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01441</v>
       </c>
       <c r="B564" t="n">
-        <v>2.85186438e-13</v>
+        <v>7.965656640000001e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>8.7433155e-15</v>
+        <v>1.50800265e-14</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01501</v>
       </c>
       <c r="B565" t="n">
-        <v>2.30011956e-13</v>
+        <v>8.877130560000001e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>8.82980748e-15</v>
+        <v>1.5735645e-14</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01551</v>
       </c>
       <c r="B566" t="n">
-        <v>1.7337645e-13</v>
+        <v>7.78511124e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>8.019820260000001e-15</v>
+        <v>1.121206158e-14</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.01607</v>
       </c>
       <c r="B567" t="n">
-        <v>1.60682202e-13</v>
+        <v>6.62068152e-13</v>
       </c>
       <c r="C567" t="n">
-        <v>7.49699154e-15</v>
+        <v>1.02357387e-14</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.0165</v>
       </c>
       <c r="B568" t="n">
-        <v>1.598738328e-13</v>
+        <v>5.94249084e-13</v>
       </c>
       <c r="C568" t="n">
-        <v>7.53361326e-15</v>
+        <v>1.09307664e-14</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.01703</v>
       </c>
       <c r="B569" t="n">
-        <v>1.94878494e-13</v>
+        <v>5.07159558e-13</v>
       </c>
       <c r="C569" t="n">
-        <v>8.019211499999999e-15</v>
+        <v>9.04042242e-15</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01753</v>
       </c>
       <c r="B570" t="n">
-        <v>2.07841878e-13</v>
+        <v>4.6969839e-13</v>
       </c>
       <c r="C570" t="n">
-        <v>8.933344739999998e-15</v>
+        <v>7.5504663e-15</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01809</v>
       </c>
       <c r="B571" t="n">
-        <v>1.9655739e-13</v>
+        <v>4.09754754e-13</v>
       </c>
       <c r="C571" t="n">
-        <v>9.9376866e-15</v>
+        <v>7.79703012e-15</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01852</v>
       </c>
       <c r="B572" t="n">
-        <v>2.1552507e-13</v>
+        <v>3.5770257e-13</v>
       </c>
       <c r="C572" t="n">
-        <v>9.0070848e-15</v>
+        <v>1.0119834e-14</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01857</v>
       </c>
       <c r="B573" t="n">
-        <v>2.07044082e-13</v>
+        <v>3.8520891e-13</v>
       </c>
       <c r="C573" t="n">
-        <v>9.86024592e-15</v>
+        <v>1.00955637e-14</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.01898</v>
       </c>
       <c r="B574" t="n">
-        <v>2.30619114e-13</v>
+        <v>3.8222118e-13</v>
       </c>
       <c r="C574" t="n">
-        <v>1.02182769e-14</v>
+        <v>9.98698014e-15</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.062</v>
+        <v>3.02004</v>
       </c>
       <c r="B575" t="n">
-        <v>2.29536162e-13</v>
+        <v>3.18323808e-13</v>
       </c>
       <c r="C575" t="n">
-        <v>9.840333060000001e-15</v>
+        <v>1.000811052e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02218</v>
       </c>
       <c r="B576" t="n">
-        <v>2.287303559999999e-13</v>
+        <v>2.45189304e-13</v>
       </c>
       <c r="C576" t="n">
-        <v>9.767954700000001e-15</v>
+        <v>8.79584508e-15</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02247</v>
       </c>
       <c r="B577" t="n">
-        <v>2.29720392e-13</v>
+        <v>2.42461098e-13</v>
       </c>
       <c r="C577" t="n">
-        <v>9.288572219999999e-15</v>
+        <v>6.7945626e-15</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02586</v>
       </c>
       <c r="B578" t="n">
-        <v>2.46562218e-13</v>
+        <v>1.93662576e-13</v>
       </c>
       <c r="C578" t="n">
-        <v>9.715056660000002e-15</v>
+        <v>7.891115580000001e-15</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02634</v>
       </c>
       <c r="B579" t="n">
-        <v>2.47049226e-13</v>
+        <v>2.00596032e-13</v>
       </c>
       <c r="C579" t="n">
-        <v>1.03730301e-14</v>
+        <v>7.26423696e-15</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.02991</v>
       </c>
       <c r="B580" t="n">
-        <v>2.54847762e-13</v>
+        <v>1.89393246e-13</v>
       </c>
       <c r="C580" t="n">
-        <v>1.08770994e-14</v>
+        <v>7.529752440000001e-15</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.03034</v>
       </c>
       <c r="B581" t="n">
-        <v>2.63062818e-13</v>
+        <v>1.95184476e-13</v>
       </c>
       <c r="C581" t="n">
-        <v>5.96455038e-15</v>
+        <v>6.7779819e-15</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03203</v>
       </c>
       <c r="B582" t="n">
-        <v>2.6565165e-13</v>
+        <v>2.09655342e-13</v>
       </c>
       <c r="C582" t="n">
-        <v>5.93329536e-15</v>
+        <v>6.11247906e-15</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.03244</v>
       </c>
       <c r="B583" t="n">
-        <v>2.62953882e-13</v>
+        <v>2.33637282e-13</v>
       </c>
       <c r="C583" t="n">
-        <v>6.12473436e-15</v>
+        <v>7.429563359999999e-15</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.033</v>
       </c>
       <c r="B584" t="n">
-        <v>2.58155892e-13</v>
+        <v>2.3425245e-13</v>
       </c>
       <c r="C584" t="n">
-        <v>6.45263172e-15</v>
+        <v>8.7160014e-15</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.0335</v>
       </c>
       <c r="B585" t="n">
-        <v>2.39000778e-13</v>
+        <v>3.69120024e-13</v>
       </c>
       <c r="C585" t="n">
-        <v>6.766351380000001e-15</v>
+        <v>8.491401e-15</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.0336</v>
       </c>
       <c r="B586" t="n">
-        <v>2.37204936e-13</v>
+        <v>2.54743632e-13</v>
       </c>
       <c r="C586" t="n">
-        <v>5.81564448e-15</v>
+        <v>8.589555539999999e-15</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.03367</v>
       </c>
       <c r="B587" t="n">
-        <v>2.41783452e-13</v>
+        <v>4.88070126e-13</v>
       </c>
       <c r="C587" t="n">
-        <v>6.17957082e-15</v>
+        <v>1.038764034e-14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03399</v>
       </c>
       <c r="B588" t="n">
-        <v>2.3941089e-13</v>
+        <v>2.9693871e-13</v>
       </c>
       <c r="C588" t="n">
-        <v>5.9070546e-15</v>
+        <v>7.889321340000001e-15</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03401</v>
       </c>
       <c r="B589" t="n">
-        <v>2.27206854e-13</v>
+        <v>1.318218516e-12</v>
       </c>
       <c r="C589" t="n">
-        <v>5.9563161e-15</v>
+        <v>1.66756986e-14</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03423</v>
       </c>
       <c r="B590" t="n">
-        <v>2.1588552e-13</v>
+        <v>7.30866042e-13</v>
       </c>
       <c r="C590" t="n">
-        <v>5.956956899999999e-15</v>
+        <v>9.863081460000001e-15</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03432</v>
       </c>
       <c r="B591" t="n">
-        <v>2.14629552e-13</v>
+        <v>4.105909980000001e-13</v>
       </c>
       <c r="C591" t="n">
-        <v>5.77983978e-15</v>
+        <v>7.513636319999999e-15</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03444</v>
       </c>
       <c r="B592" t="n">
-        <v>1.99439388e-13</v>
+        <v>1.128517686e-12</v>
       </c>
       <c r="C592" t="n">
-        <v>6.39845208e-15</v>
+        <v>1.026287658e-14</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03452</v>
       </c>
       <c r="B593" t="n">
-        <v>1.86581736e-13</v>
+        <v>5.843295e-13</v>
       </c>
       <c r="C593" t="n">
-        <v>5.40732672e-15</v>
+        <v>1.11337398e-14</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03483</v>
       </c>
       <c r="B594" t="n">
-        <v>1.94758344e-13</v>
+        <v>1.008016848e-12</v>
       </c>
       <c r="C594" t="n">
-        <v>6.06312144e-15</v>
+        <v>1.72581858e-14</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03488</v>
       </c>
       <c r="B595" t="n">
-        <v>1.84628898e-13</v>
+        <v>7.43118138e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>5.631558660000001e-15</v>
+        <v>1.073583504e-14</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03505</v>
       </c>
       <c r="B596" t="n">
-        <v>1.86930972e-13</v>
+        <v>1.395428508e-12</v>
       </c>
       <c r="C596" t="n">
-        <v>6.27902298e-15</v>
+        <v>2.02883688e-14</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03594</v>
       </c>
       <c r="B597" t="n">
-        <v>2.00632878e-13</v>
+        <v>5.729585039999999e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>6.223241339999999e-15</v>
+        <v>1.302235362e-14</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03698</v>
       </c>
       <c r="B598" t="n">
-        <v>2.12530932e-13</v>
+        <v>3.33414648e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>6.08569362e-15</v>
+        <v>9.93749436e-15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03799</v>
       </c>
       <c r="B599" t="n">
-        <v>2.60305776e-13</v>
+        <v>2.92243248e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>5.85333954e-15</v>
+        <v>1.01276838e-14</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03879</v>
       </c>
       <c r="B600" t="n">
-        <v>4.847507820000001e-13</v>
+        <v>2.88555444e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>8.420496480000001e-15</v>
+        <v>6.7738968e-15</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.03898</v>
       </c>
       <c r="B601" t="n">
-        <v>6.6572712e-13</v>
+        <v>2.67034176e-13</v>
       </c>
       <c r="C601" t="n">
-        <v>8.62872444e-15</v>
+        <v>9.6915393e-15</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.04002</v>
       </c>
       <c r="B602" t="n">
-        <v>1.08577152e-12</v>
+        <v>2.77653834e-13</v>
       </c>
       <c r="C602" t="n">
-        <v>1.278037152e-14</v>
+        <v>7.49763234e-15</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04202</v>
       </c>
       <c r="B603" t="n">
-        <v>1.8025704e-12</v>
+        <v>2.85186438e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>1.7209485e-14</v>
+        <v>8.7433155e-15</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04296</v>
       </c>
       <c r="B604" t="n">
-        <v>2.53192896e-12</v>
+        <v>2.7539181e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>1.80920268e-14</v>
+        <v>6.99463638e-15</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04591</v>
       </c>
       <c r="B605" t="n">
-        <v>2.56425732e-12</v>
+        <v>2.30011956e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>1.84327722e-14</v>
+        <v>8.82980748e-15</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04695</v>
       </c>
       <c r="B606" t="n">
-        <v>2.0478366e-12</v>
+        <v>2.15315208e-13</v>
       </c>
       <c r="C606" t="n">
-        <v>1.81240668e-14</v>
+        <v>7.022383020000001e-15</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.04891</v>
       </c>
       <c r="B607" t="n">
-        <v>1.590130782e-12</v>
+        <v>1.9551609e-13</v>
       </c>
       <c r="C607" t="n">
-        <v>1.55208168e-14</v>
+        <v>6.7255164e-15</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.05</v>
       </c>
       <c r="B608" t="n">
-        <v>1.094793984e-12</v>
+        <v>1.7337645e-13</v>
       </c>
       <c r="C608" t="n">
-        <v>1.401139638e-14</v>
+        <v>8.019820260000001e-15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.0529</v>
       </c>
       <c r="B609" t="n">
-        <v>8.376121080000001e-13</v>
+        <v>1.75431816e-13</v>
       </c>
       <c r="C609" t="n">
-        <v>1.196674776e-14</v>
+        <v>6.392076119999999e-15</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.05401</v>
       </c>
       <c r="B610" t="n">
-        <v>5.372307e-13</v>
+        <v>1.60682202e-13</v>
       </c>
       <c r="C610" t="n">
-        <v>9.57550644e-15</v>
+        <v>7.49699154e-15</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05694</v>
       </c>
       <c r="B611" t="n">
-        <v>4.45569066e-13</v>
+        <v>1.83600414e-13</v>
       </c>
       <c r="C611" t="n">
-        <v>9.245158019999999e-15</v>
+        <v>7.35128964e-15</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05801</v>
       </c>
       <c r="B612" t="n">
-        <v>3.60639036e-13</v>
+        <v>1.598738328e-13</v>
       </c>
       <c r="C612" t="n">
-        <v>8.25920712e-15</v>
+        <v>7.53361326e-15</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.05997</v>
       </c>
       <c r="B613" t="n">
-        <v>3.09597714e-13</v>
+        <v>1.94878494e-13</v>
       </c>
       <c r="C613" t="n">
-        <v>8.29517202e-15</v>
+        <v>8.019211499999999e-15</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.06048</v>
       </c>
       <c r="B614" t="n">
-        <v>2.76907302e-13</v>
+        <v>2.07841878e-13</v>
       </c>
       <c r="C614" t="n">
-        <v>7.881022979999999e-15</v>
+        <v>8.933344739999998e-15</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06094</v>
       </c>
       <c r="B615" t="n">
-        <v>2.5241112e-13</v>
+        <v>2.21670342e-13</v>
       </c>
       <c r="C615" t="n">
-        <v>6.3444006e-15</v>
+        <v>5.9753799e-15</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.06096</v>
       </c>
       <c r="B616" t="n">
-        <v>2.3764869e-13</v>
+        <v>1.9655739e-13</v>
       </c>
       <c r="C616" t="n">
-        <v>9.93610062e-15</v>
+        <v>9.9376866e-15</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.0613</v>
       </c>
       <c r="B617" t="n">
-        <v>2.2798863e-13</v>
+        <v>2.1552507e-13</v>
       </c>
       <c r="C617" t="n">
-        <v>7.47339408e-15</v>
+        <v>9.0070848e-15</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.06147</v>
       </c>
       <c r="B618" t="n">
-        <v>2.21319504e-13</v>
+        <v>2.07044082e-13</v>
       </c>
       <c r="C618" t="n">
-        <v>6.962900760000002e-15</v>
+        <v>9.86024592e-15</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.06178</v>
       </c>
       <c r="B619" t="n">
-        <v>2.16952452e-13</v>
+        <v>2.30619114e-13</v>
       </c>
       <c r="C619" t="n">
-        <v>7.12660914e-15</v>
+        <v>1.02182769e-14</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.062</v>
       </c>
       <c r="B620" t="n">
-        <v>2.19228894e-13</v>
+        <v>2.29536162e-13</v>
       </c>
       <c r="C620" t="n">
-        <v>7.02411318e-15</v>
+        <v>9.840333060000001e-15</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.06227</v>
       </c>
       <c r="B621" t="n">
-        <v>2.24698122e-13</v>
+        <v>2.287303559999999e-13</v>
       </c>
       <c r="C621" t="n">
-        <v>7.79123088e-15</v>
+        <v>9.767954700000001e-15</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.06258</v>
       </c>
       <c r="B622" t="n">
-        <v>2.12611032e-13</v>
+        <v>2.29720392e-13</v>
       </c>
       <c r="C622" t="n">
-        <v>6.93803772e-15</v>
+        <v>9.288572219999999e-15</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.0628</v>
       </c>
       <c r="B623" t="n">
-        <v>2.14160166e-13</v>
+        <v>2.46562218e-13</v>
       </c>
       <c r="C623" t="n">
-        <v>6.581576700000001e-15</v>
+        <v>9.715056660000002e-15</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.06292</v>
       </c>
       <c r="B624" t="n">
-        <v>2.26799946e-13</v>
+        <v>2.56834242e-13</v>
       </c>
       <c r="C624" t="n">
-        <v>6.77879892e-15</v>
+        <v>7.00061184e-15</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06312</v>
       </c>
       <c r="B625" t="n">
-        <v>2.33305668e-13</v>
+        <v>2.47049226e-13</v>
       </c>
       <c r="C625" t="n">
-        <v>6.5580273e-15</v>
+        <v>1.03730301e-14</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06324</v>
       </c>
       <c r="B626" t="n">
-        <v>2.41083378e-13</v>
+        <v>2.54847762e-13</v>
       </c>
       <c r="C626" t="n">
-        <v>7.596940320000001e-15</v>
+        <v>1.08770994e-14</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06353</v>
       </c>
       <c r="B627" t="n">
-        <v>2.38095648e-13</v>
+        <v>2.63062818e-13</v>
       </c>
       <c r="C627" t="n">
-        <v>6.931053000000001e-15</v>
+        <v>5.96455038e-15</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06375</v>
       </c>
       <c r="B628" t="n">
-        <v>2.32475832e-13</v>
+        <v>2.6565165e-13</v>
       </c>
       <c r="C628" t="n">
-        <v>7.447249440000001e-15</v>
+        <v>5.93329536e-15</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06389</v>
       </c>
       <c r="B629" t="n">
-        <v>2.42675766e-13</v>
+        <v>2.38243032e-13</v>
       </c>
       <c r="C629" t="n">
-        <v>7.2000288e-15</v>
+        <v>7.71537618e-15</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06404</v>
       </c>
       <c r="B630" t="n">
-        <v>2.5443765e-13</v>
+        <v>2.62953882e-13</v>
       </c>
       <c r="C630" t="n">
-        <v>9.167060519999999e-15</v>
+        <v>6.12473436e-15</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06418</v>
       </c>
       <c r="B631" t="n">
-        <v>2.52733122e-13</v>
+        <v>2.58155892e-13</v>
       </c>
       <c r="C631" t="n">
-        <v>7.200845819999999e-15</v>
+        <v>6.45263172e-15</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06445</v>
       </c>
       <c r="B632" t="n">
-        <v>2.72730888e-13</v>
+        <v>2.39000778e-13</v>
       </c>
       <c r="C632" t="n">
-        <v>9.1392498e-15</v>
+        <v>6.766351380000001e-15</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06455</v>
       </c>
       <c r="B633" t="n">
-        <v>3.03860952e-13</v>
+        <v>2.13628302e-13</v>
       </c>
       <c r="C633" t="n">
-        <v>7.28970876e-15</v>
+        <v>8.5256037e-15</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06481</v>
       </c>
       <c r="B634" t="n">
-        <v>3.58761492e-13</v>
+        <v>2.37204936e-13</v>
       </c>
       <c r="C634" t="n">
-        <v>8.95812768e-15</v>
+        <v>5.81564448e-15</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06486</v>
       </c>
       <c r="B635" t="n">
-        <v>4.80889962e-13</v>
+        <v>2.274583680000001e-13</v>
       </c>
       <c r="C635" t="n">
-        <v>9.612768960000001e-15</v>
+        <v>8.462645100000001e-15</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06498</v>
       </c>
       <c r="B636" t="n">
-        <v>4.91679432e-13</v>
+        <v>2.41783452e-13</v>
       </c>
       <c r="C636" t="n">
-        <v>1.106951562e-14</v>
+        <v>6.17957082e-15</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06532</v>
       </c>
       <c r="B637" t="n">
-        <v>6.560302139999998e-13</v>
+        <v>2.3941089e-13</v>
       </c>
       <c r="C637" t="n">
-        <v>1.068026166e-14</v>
+        <v>5.9070546e-15</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06547</v>
       </c>
       <c r="B638" t="n">
-        <v>9.231925499999999e-13</v>
+        <v>2.27206854e-13</v>
       </c>
       <c r="C638" t="n">
-        <v>1.360149264e-14</v>
+        <v>5.9563161e-15</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06583</v>
       </c>
       <c r="B639" t="n">
-        <v>1.098481788e-12</v>
+        <v>2.1588552e-13</v>
       </c>
       <c r="C639" t="n">
-        <v>1.46386755e-14</v>
+        <v>5.956956899999999e-15</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.06603</v>
       </c>
       <c r="B640" t="n">
-        <v>1.144520064e-12</v>
+        <v>2.14629552e-13</v>
       </c>
       <c r="C640" t="n">
-        <v>1.539183978e-14</v>
+        <v>5.77983978e-15</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.0662</v>
       </c>
       <c r="B641" t="n">
-        <v>1.085428692e-12</v>
+        <v>1.99439388e-13</v>
       </c>
       <c r="C641" t="n">
-        <v>1.593334782e-14</v>
+        <v>6.39845208e-15</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.06658</v>
       </c>
       <c r="B642" t="n">
-        <v>9.005883300000001e-13</v>
+        <v>1.86581736e-13</v>
       </c>
       <c r="C642" t="n">
-        <v>1.507949784e-14</v>
+        <v>5.40732672e-15</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06707</v>
       </c>
       <c r="B643" t="n">
-        <v>6.27505002e-13</v>
+        <v>1.94758344e-13</v>
       </c>
       <c r="C643" t="n">
-        <v>1.112358312e-14</v>
+        <v>6.06312144e-15</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06758</v>
       </c>
       <c r="B644" t="n">
-        <v>4.60043136e-13</v>
+        <v>1.84628898e-13</v>
       </c>
       <c r="C644" t="n">
-        <v>9.727664400000001e-15</v>
+        <v>5.631558660000001e-15</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06787</v>
       </c>
       <c r="B645" t="n">
-        <v>3.70890234e-13</v>
+        <v>1.86930972e-13</v>
       </c>
       <c r="C645" t="n">
-        <v>9.344914560000001e-15</v>
+        <v>6.27902298e-15</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06913</v>
       </c>
       <c r="B646" t="n">
-        <v>3.372562440000001e-13</v>
+        <v>2.00632878e-13</v>
       </c>
       <c r="C646" t="n">
-        <v>7.115379120000001e-15</v>
+        <v>6.223241339999999e-15</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.06998</v>
       </c>
       <c r="B647" t="n">
-        <v>3.25872432e-13</v>
+        <v>2.12530932e-13</v>
       </c>
       <c r="C647" t="n">
-        <v>7.7379003e-15</v>
+        <v>6.08569362e-15</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.07042</v>
       </c>
       <c r="B648" t="n">
-        <v>3.1435245e-13</v>
+        <v>3.0044709e-13</v>
       </c>
       <c r="C648" t="n">
-        <v>7.958399580000001e-15</v>
+        <v>8.36546778e-15</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07095</v>
       </c>
       <c r="B649" t="n">
-        <v>3.04850988e-13</v>
+        <v>2.60305776e-13</v>
       </c>
       <c r="C649" t="n">
-        <v>8.52662898e-15</v>
+        <v>5.85333954e-15</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07097</v>
       </c>
       <c r="B650" t="n">
-        <v>2.91769056e-13</v>
+        <v>3.77793252e-13</v>
       </c>
       <c r="C650" t="n">
-        <v>8.9069598e-15</v>
+        <v>9.204435179999999e-15</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07192</v>
       </c>
       <c r="B651" t="n">
-        <v>3.06147006e-13</v>
+        <v>1.054719954e-12</v>
       </c>
       <c r="C651" t="n">
-        <v>9.135244799999999e-15</v>
+        <v>2.34603288e-14</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07204</v>
       </c>
       <c r="B652" t="n">
-        <v>2.95476084e-13</v>
+        <v>1.47263049e-12</v>
       </c>
       <c r="C652" t="n">
-        <v>9.29730312e-15</v>
+        <v>2.35769544e-14</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07209</v>
       </c>
       <c r="B653" t="n">
-        <v>3.21356394e-13</v>
+        <v>4.847507820000001e-13</v>
       </c>
       <c r="C653" t="n">
-        <v>1.016183844e-14</v>
+        <v>8.420496480000001e-15</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07241</v>
       </c>
       <c r="B654" t="n">
-        <v>3.63745314e-13</v>
+        <v>2.37059154e-12</v>
       </c>
       <c r="C654" t="n">
-        <v>1.00727352e-14</v>
+        <v>4.07103444e-14</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.07245</v>
       </c>
       <c r="B655" t="n">
-        <v>3.818719440000001e-13</v>
+        <v>6.6572712e-13</v>
       </c>
       <c r="C655" t="n">
-        <v>1.031316336e-14</v>
+        <v>8.62872444e-15</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>3.124</v>
+        <v>3.0726</v>
       </c>
       <c r="B656" t="n">
-        <v>4.14587988e-13</v>
+        <v>2.65254354e-12</v>
       </c>
       <c r="C656" t="n">
-        <v>1.052840808e-14</v>
+        <v>2.55088062e-14</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.07279</v>
       </c>
       <c r="B657" t="n">
-        <v>3.98612844e-13</v>
+        <v>1.08577152e-12</v>
       </c>
       <c r="C657" t="n">
-        <v>7.948803600000001e-15</v>
+        <v>1.278037152e-14</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07292</v>
       </c>
       <c r="B658" t="n">
-        <v>3.41873208e-13</v>
+        <v>2.21737626e-12</v>
       </c>
       <c r="C658" t="n">
-        <v>8.14043484e-15</v>
+        <v>2.27104326e-14</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07309</v>
       </c>
       <c r="B659" t="n">
-        <v>3.10887324e-13</v>
+        <v>1.88271846e-12</v>
       </c>
       <c r="C659" t="n">
-        <v>7.568136360000001e-15</v>
+        <v>2.14879464e-14</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07309</v>
       </c>
       <c r="B660" t="n">
-        <v>2.39015196e-13</v>
+        <v>1.8025704e-12</v>
       </c>
       <c r="C660" t="n">
-        <v>9.08556678e-15</v>
+        <v>1.7209485e-14</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.07328</v>
       </c>
       <c r="B661" t="n">
-        <v>2.19124764e-13</v>
+        <v>2.53192896e-12</v>
       </c>
       <c r="C661" t="n">
-        <v>7.84549062e-15</v>
+        <v>1.80920268e-14</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3.157</v>
+        <v>3.0734</v>
       </c>
       <c r="B662" t="n">
-        <v>2.18615328e-13</v>
+        <v>1.61870886e-12</v>
       </c>
       <c r="C662" t="n">
-        <v>6.84813348e-15</v>
+        <v>2.25279648e-14</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.07362</v>
       </c>
       <c r="B663" t="n">
-        <v>2.06270316e-13</v>
+        <v>2.56425732e-12</v>
       </c>
       <c r="C663" t="n">
-        <v>7.645769279999999e-15</v>
+        <v>1.84327722e-14</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07374</v>
       </c>
       <c r="B664" t="n">
-        <v>2.15443368e-13</v>
+        <v>1.233902052e-12</v>
       </c>
       <c r="C664" t="n">
-        <v>5.81292108e-15</v>
+        <v>1.93479948e-14</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07384</v>
       </c>
       <c r="B665" t="n">
-        <v>2.25278046e-13</v>
+        <v>2.0478366e-12</v>
       </c>
       <c r="C665" t="n">
-        <v>7.33725612e-15</v>
+        <v>1.81240668e-14</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07398</v>
       </c>
       <c r="B666" t="n">
-        <v>2.80603116e-13</v>
+        <v>8.04607704e-13</v>
       </c>
       <c r="C666" t="n">
-        <v>9.508638960000001e-15</v>
+        <v>1.147499784e-14</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.07401</v>
       </c>
       <c r="B667" t="n">
-        <v>7.568488800000001e-13</v>
+        <v>1.590130782e-12</v>
       </c>
       <c r="C667" t="n">
-        <v>1.130837382e-14</v>
+        <v>1.55208168e-14</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.0743</v>
       </c>
       <c r="B668" t="n">
-        <v>3.01906512e-13</v>
+        <v>1.094793984e-12</v>
       </c>
       <c r="C668" t="n">
-        <v>5.325256260000001e-15</v>
+        <v>1.401139638e-14</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.07452</v>
       </c>
       <c r="B669" t="n">
-        <v>2.59866828e-13</v>
+        <v>8.376121080000001e-13</v>
       </c>
       <c r="C669" t="n">
-        <v>6.83887392e-15</v>
+        <v>1.196674776e-14</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07452</v>
       </c>
       <c r="B670" t="n">
-        <v>2.30761692e-13</v>
+        <v>5.100175259999999e-13</v>
       </c>
       <c r="C670" t="n">
-        <v>6.18990372e-15</v>
+        <v>1.116598806e-14</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07491</v>
       </c>
       <c r="B671" t="n">
-        <v>2.3373981e-13</v>
+        <v>3.98279628e-13</v>
       </c>
       <c r="C671" t="n">
-        <v>5.1475464e-15</v>
+        <v>1.017865944e-14</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07505</v>
       </c>
       <c r="B672" t="n">
-        <v>2.28480444e-13</v>
+        <v>5.372307e-13</v>
       </c>
       <c r="C672" t="n">
-        <v>4.99993812e-15</v>
+        <v>9.57550644e-15</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.07537</v>
       </c>
       <c r="B673" t="n">
-        <v>2.45568978e-13</v>
+        <v>4.45569066e-13</v>
       </c>
       <c r="C673" t="n">
-        <v>7.09578666e-15</v>
+        <v>9.245158019999999e-15</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.0759</v>
       </c>
       <c r="B674" t="n">
-        <v>2.585147400000001e-13</v>
+        <v>2.99756628e-13</v>
       </c>
       <c r="C674" t="n">
-        <v>7.260023699999999e-15</v>
+        <v>8.55509652e-15</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.07593</v>
       </c>
       <c r="B675" t="n">
-        <v>3.043783980000001e-13</v>
+        <v>3.60639036e-13</v>
       </c>
       <c r="C675" t="n">
-        <v>7.176046860000001e-15</v>
+        <v>8.25920712e-15</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07644</v>
       </c>
       <c r="B676" t="n">
-        <v>3.420173880000001e-13</v>
+        <v>3.09597714e-13</v>
       </c>
       <c r="C676" t="n">
-        <v>8.017433280000002e-15</v>
+        <v>8.29517202e-15</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07697</v>
       </c>
       <c r="B677" t="n">
-        <v>5.02770078e-13</v>
+        <v>2.76907302e-13</v>
       </c>
       <c r="C677" t="n">
-        <v>1.026885204e-14</v>
+        <v>7.881022979999999e-15</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07784</v>
       </c>
       <c r="B678" t="n">
-        <v>5.980570380000001e-13</v>
+        <v>2.44668654e-13</v>
       </c>
       <c r="C678" t="n">
-        <v>9.17893134e-15</v>
+        <v>7.98874146e-15</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.07801</v>
       </c>
       <c r="B679" t="n">
-        <v>7.071260039999999e-13</v>
+        <v>2.5241112e-13</v>
       </c>
       <c r="C679" t="n">
-        <v>1.216565208e-14</v>
+        <v>6.3444006e-15</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.08001</v>
       </c>
       <c r="B680" t="n">
-        <v>8.21319768e-13</v>
+        <v>2.3764869e-13</v>
       </c>
       <c r="C680" t="n">
-        <v>1.173955212e-14</v>
+        <v>9.93610062e-15</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.0819</v>
       </c>
       <c r="B681" t="n">
-        <v>8.581193100000001e-13</v>
+        <v>2.282305320000001e-13</v>
       </c>
       <c r="C681" t="n">
-        <v>1.554079374e-14</v>
+        <v>9.63069534e-15</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08205</v>
       </c>
       <c r="B682" t="n">
-        <v>3.13867044e-13</v>
+        <v>2.2798863e-13</v>
       </c>
       <c r="C682" t="n">
-        <v>6.19094502e-15</v>
+        <v>7.47339408e-15</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0829</v>
       </c>
       <c r="B683" t="n">
-        <v>4.351833e-13</v>
+        <v>2.21319504e-13</v>
       </c>
       <c r="C683" t="n">
-        <v>1.034324892e-14</v>
+        <v>6.962900760000002e-15</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.08356</v>
       </c>
       <c r="B684" t="n">
-        <v>2.10429108e-13</v>
+        <v>2.16952452e-13</v>
       </c>
       <c r="C684" t="n">
-        <v>3.43367874e-15</v>
+        <v>7.12660914e-15</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08506</v>
       </c>
       <c r="B685" t="n">
-        <v>1.73227464e-13</v>
+        <v>2.19228894e-13</v>
       </c>
       <c r="C685" t="n">
-        <v>4.42265742e-15</v>
+        <v>7.02411318e-15</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08579</v>
       </c>
       <c r="B686" t="n">
-        <v>1.599814872e-13</v>
+        <v>2.05831368e-13</v>
       </c>
       <c r="C686" t="n">
-        <v>7.722665279999999e-15</v>
+        <v>6.634891260000001e-15</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>3.19493</v>
+        <v>3.08604</v>
       </c>
       <c r="B687" t="n">
-        <v>1.229978754e-13</v>
+        <v>2.24698122e-13</v>
       </c>
       <c r="C687" t="n">
-        <v>9.101987280000001e-15</v>
+        <v>7.79123088e-15</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08798</v>
       </c>
       <c r="B688" t="n">
-        <v>1.280055672e-13</v>
+        <v>2.12611032e-13</v>
       </c>
       <c r="C688" t="n">
-        <v>7.348085640000001e-15</v>
+        <v>6.93803772e-15</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>3.19699</v>
+        <v>3.08898</v>
       </c>
       <c r="B689" t="n">
-        <v>1.377220176e-13</v>
+        <v>2.14160166e-13</v>
       </c>
       <c r="C689" t="n">
-        <v>7.71592086e-15</v>
+        <v>6.581576700000001e-15</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>3.1976</v>
+        <v>3.08959</v>
       </c>
       <c r="B690" t="n">
-        <v>1.332689382e-13</v>
+        <v>2.19741534e-13</v>
       </c>
       <c r="C690" t="n">
-        <v>5.0145003e-15</v>
+        <v>6.18046794e-15</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B691" t="n">
+        <v>2.26799946e-13</v>
+      </c>
+      <c r="C691" t="n">
+        <v>6.77879892e-15</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B692" t="n">
+        <v>2.33305668e-13</v>
+      </c>
+      <c r="C692" t="n">
+        <v>6.5580273e-15</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B693" t="n">
+        <v>2.41083378e-13</v>
+      </c>
+      <c r="C693" t="n">
+        <v>7.596940320000001e-15</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B694" t="n">
+        <v>2.38095648e-13</v>
+      </c>
+      <c r="C694" t="n">
+        <v>6.931053000000001e-15</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B695" t="n">
+        <v>2.4291927e-13</v>
+      </c>
+      <c r="C695" t="n">
+        <v>6.76817766e-15</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B696" t="n">
+        <v>2.32475832e-13</v>
+      </c>
+      <c r="C696" t="n">
+        <v>7.447249440000001e-15</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B697" t="n">
+        <v>2.42675766e-13</v>
+      </c>
+      <c r="C697" t="n">
+        <v>7.2000288e-15</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B698" t="n">
+        <v>2.5443765e-13</v>
+      </c>
+      <c r="C698" t="n">
+        <v>9.167060519999999e-15</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B699" t="n">
+        <v>2.6362512e-13</v>
+      </c>
+      <c r="C699" t="n">
+        <v>7.3590273e-15</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B700" t="n">
+        <v>2.52733122e-13</v>
+      </c>
+      <c r="C700" t="n">
+        <v>7.200845819999999e-15</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B701" t="n">
+        <v>2.89071288e-13</v>
+      </c>
+      <c r="C701" t="n">
+        <v>6.60794562e-15</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B702" t="n">
+        <v>3.20308686e-13</v>
+      </c>
+      <c r="C702" t="n">
+        <v>6.85870668e-15</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B703" t="n">
+        <v>2.72730888e-13</v>
+      </c>
+      <c r="C703" t="n">
+        <v>9.1392498e-15</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B704" t="n">
+        <v>3.03860952e-13</v>
+      </c>
+      <c r="C704" t="n">
+        <v>7.28970876e-15</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B705" t="n">
+        <v>3.397041000000001e-13</v>
+      </c>
+      <c r="C705" t="n">
+        <v>8.57834154e-15</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B706" t="n">
+        <v>5.21093754e-13</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1.70510472e-14</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B707" t="n">
+        <v>3.58761492e-13</v>
+      </c>
+      <c r="C707" t="n">
+        <v>8.95812768e-15</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B708" t="n">
+        <v>5.888199060000001e-13</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1.037304612e-14</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B709" t="n">
+        <v>4.80889962e-13</v>
+      </c>
+      <c r="C709" t="n">
+        <v>9.612768960000001e-15</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B710" t="n">
+        <v>4.91679432e-13</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1.106951562e-14</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B711" t="n">
+        <v>6.560302139999998e-13</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1.068026166e-14</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B712" t="n">
+        <v>9.231925499999999e-13</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1.360149264e-14</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B713" t="n">
+        <v>1.098481788e-12</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1.46386755e-14</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B714" t="n">
+        <v>1.144520064e-12</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1.539183978e-14</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B715" t="n">
+        <v>1.085428692e-12</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1.593334782e-14</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B716" t="n">
+        <v>9.005883300000001e-13</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1.507949784e-14</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B717" t="n">
+        <v>6.27505002e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1.112358312e-14</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B718" t="n">
+        <v>4.60043136e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>9.727664400000001e-15</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B719" t="n">
+        <v>3.70890234e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>9.344914560000001e-15</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B720" t="n">
+        <v>3.00541608e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>7.15224114e-15</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B721" t="n">
+        <v>3.372562440000001e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>7.115379120000001e-15</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B722" t="n">
+        <v>3.25872432e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>7.7379003e-15</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B723" t="n">
+        <v>3.1435245e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>7.958399580000001e-15</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B724" t="n">
+        <v>3.04850988e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>8.52662898e-15</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B725" t="n">
+        <v>2.91769056e-13</v>
+      </c>
+      <c r="C725" t="n">
+        <v>8.9069598e-15</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B726" t="n">
+        <v>3.06147006e-13</v>
+      </c>
+      <c r="C726" t="n">
+        <v>9.135244799999999e-15</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B727" t="n">
+        <v>2.95476084e-13</v>
+      </c>
+      <c r="C727" t="n">
+        <v>9.29730312e-15</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B728" t="n">
+        <v>2.92562046e-13</v>
+      </c>
+      <c r="C728" t="n">
+        <v>7.939896480000002e-15</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B729" t="n">
+        <v>3.21356394e-13</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1.016183844e-14</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B730" t="n">
+        <v>3.04295094e-13</v>
+      </c>
+      <c r="C730" t="n">
+        <v>7.79619708e-15</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B731" t="n">
+        <v>3.63745314e-13</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1.00727352e-14</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B732" t="n">
+        <v>3.48640056e-13</v>
+      </c>
+      <c r="C732" t="n">
+        <v>8.90061588e-15</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B733" t="n">
+        <v>3.818719440000001e-13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1.031316336e-14</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B734" t="n">
+        <v>3.81774222e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>7.614946799999999e-15</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B735" t="n">
+        <v>4.14587988e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.052840808e-14</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B736" t="n">
+        <v>3.86919846e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>9.040854959999999e-15</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B737" t="n">
+        <v>3.93009048e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>8.707174380000001e-15</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B738" t="n">
+        <v>3.74802318e-13</v>
+      </c>
+      <c r="C738" t="n">
+        <v>8.43239934e-15</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B739" t="n">
+        <v>3.30329196e-13</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1.100868768e-14</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B740" t="n">
+        <v>3.98612844e-13</v>
+      </c>
+      <c r="C740" t="n">
+        <v>7.948803600000001e-15</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B741" t="n">
+        <v>2.74898394e-13</v>
+      </c>
+      <c r="C741" t="n">
+        <v>8.1218196e-15</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B742" t="n">
+        <v>3.41873208e-13</v>
+      </c>
+      <c r="C742" t="n">
+        <v>8.14043484e-15</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B743" t="n">
+        <v>2.39444532e-13</v>
+      </c>
+      <c r="C743" t="n">
+        <v>8.069386139999999e-15</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B744" t="n">
+        <v>3.10887324e-13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>7.568136360000001e-15</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B745" t="n">
+        <v>2.3728824e-13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>6.576226020000001e-15</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B746" t="n">
+        <v>2.18596104e-13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>7.49224962e-15</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B747" t="n">
+        <v>2.39015196e-13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>9.08556678e-15</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B748" t="n">
+        <v>1.76694192e-13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>7.23117168e-15</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B749" t="n">
+        <v>2.19124764e-13</v>
+      </c>
+      <c r="C749" t="n">
+        <v>7.84549062e-15</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1.63197342e-13</v>
+      </c>
+      <c r="C750" t="n">
+        <v>7.023969e-15</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B751" t="n">
+        <v>1.66827474e-13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>8.646875100000001e-15</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1.540313388e-13</v>
+      </c>
+      <c r="C752" t="n">
+        <v>8.690401440000001e-15</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1.63210158e-13</v>
+      </c>
+      <c r="C753" t="n">
+        <v>4.76003862e-15</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B754" t="n">
+        <v>2.18615328e-13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>6.84813348e-15</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B755" t="n">
+        <v>2.06270316e-13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>7.645769279999999e-15</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B756" t="n">
+        <v>2.02430322e-13</v>
+      </c>
+      <c r="C756" t="n">
+        <v>9.60972516e-15</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B757" t="n">
+        <v>2.15443368e-13</v>
+      </c>
+      <c r="C757" t="n">
+        <v>5.81292108e-15</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B758" t="n">
+        <v>2.25278046e-13</v>
+      </c>
+      <c r="C758" t="n">
+        <v>7.33725612e-15</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B759" t="n">
+        <v>2.14743294e-13</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1.058527908e-14</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B760" t="n">
+        <v>2.21566212e-13</v>
+      </c>
+      <c r="C760" t="n">
+        <v>9.542264939999999e-15</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B761" t="n">
+        <v>4.33198422e-13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1.321190226e-14</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B762" t="n">
+        <v>7.947586080000001e-13</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1.61979822e-14</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B763" t="n">
+        <v>2.80603116e-13</v>
+      </c>
+      <c r="C763" t="n">
+        <v>9.508638960000001e-15</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B764" t="n">
+        <v>6.78858714e-13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1.548874476e-14</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B765" t="n">
+        <v>7.568488800000001e-13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1.130837382e-14</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B766" t="n">
+        <v>3.01906512e-13</v>
+      </c>
+      <c r="C766" t="n">
+        <v>5.325256260000001e-15</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B767" t="n">
+        <v>2.15690076e-13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>1.066734954e-14</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B768" t="n">
+        <v>2.59866828e-13</v>
+      </c>
+      <c r="C768" t="n">
+        <v>6.83887392e-15</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B769" t="n">
+        <v>1.92690162e-13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>8.17575894e-15</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B770" t="n">
+        <v>2.30761692e-13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>6.18990372e-15</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B771" t="n">
+        <v>2.02842036e-13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>1.084291272e-14</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2.3373981e-13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>5.1475464e-15</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B773" t="n">
+        <v>1.81764522e-13</v>
+      </c>
+      <c r="C773" t="n">
+        <v>9.50336838e-15</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.28480444e-13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>4.99993812e-15</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B775" t="n">
+        <v>1.935216e-13</v>
+      </c>
+      <c r="C775" t="n">
+        <v>1.02705822e-14</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2.45568978e-13</v>
+      </c>
+      <c r="C776" t="n">
+        <v>7.09578666e-15</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B777" t="n">
+        <v>2.27429532e-13</v>
+      </c>
+      <c r="C777" t="n">
+        <v>1.152804006e-14</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2.585147400000001e-13</v>
+      </c>
+      <c r="C778" t="n">
+        <v>7.260023699999999e-15</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.20319856e-13</v>
+      </c>
+      <c r="C779" t="n">
+        <v>1.025885556e-14</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B780" t="n">
+        <v>3.043783980000001e-13</v>
+      </c>
+      <c r="C780" t="n">
+        <v>7.176046860000001e-15</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.57116194e-13</v>
+      </c>
+      <c r="C781" t="n">
+        <v>1.113708798e-14</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B782" t="n">
+        <v>3.29510574e-13</v>
+      </c>
+      <c r="C782" t="n">
+        <v>1.231116174e-14</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B783" t="n">
+        <v>3.420173880000001e-13</v>
+      </c>
+      <c r="C783" t="n">
+        <v>8.017433280000002e-15</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B784" t="n">
+        <v>3.29073228e-13</v>
+      </c>
+      <c r="C784" t="n">
+        <v>1.13924628e-14</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B785" t="n">
+        <v>3.7958589e-13</v>
+      </c>
+      <c r="C785" t="n">
+        <v>1.263042432e-14</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B786" t="n">
+        <v>5.02770078e-13</v>
+      </c>
+      <c r="C786" t="n">
+        <v>1.026885204e-14</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B787" t="n">
+        <v>4.551201900000001e-13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>1.35964944e-14</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B788" t="n">
+        <v>5.980570380000001e-13</v>
+      </c>
+      <c r="C788" t="n">
+        <v>9.17893134e-15</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B789" t="n">
+        <v>5.517912779999999e-13</v>
+      </c>
+      <c r="C789" t="n">
+        <v>1.448831178e-14</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B790" t="n">
+        <v>5.94039222e-13</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1.50327675e-14</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B791" t="n">
+        <v>7.071260039999999e-13</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1.216565208e-14</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B792" t="n">
+        <v>6.68040408e-13</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1.583863758e-14</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B793" t="n">
+        <v>7.469260920000001e-13</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1.6480575e-14</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B794" t="n">
+        <v>8.12883636e-13</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1.74734946e-14</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B795" t="n">
+        <v>8.21319768e-13</v>
+      </c>
+      <c r="C795" t="n">
+        <v>1.173955212e-14</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B796" t="n">
+        <v>8.144151480000001e-13</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1.76135094e-14</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B797" t="n">
+        <v>7.740751860000001e-13</v>
+      </c>
+      <c r="C797" t="n">
+        <v>1.73251494e-14</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B798" t="n">
+        <v>8.581193100000001e-13</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1.554079374e-14</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B799" t="n">
+        <v>7.16701158e-13</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1.67306472e-14</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B800" t="n">
+        <v>7.06302576e-13</v>
+      </c>
+      <c r="C800" t="n">
+        <v>1.6462152e-14</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B801" t="n">
+        <v>6.202447380000001e-13</v>
+      </c>
+      <c r="C801" t="n">
+        <v>1.368037512e-14</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B802" t="n">
+        <v>5.47148682e-13</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1.500063138e-14</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B803" t="n">
+        <v>4.71776184e-13</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1.445622372e-14</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B804" t="n">
+        <v>4.00469562e-13</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1.275107094e-14</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B805" t="n">
+        <v>3.13867044e-13</v>
+      </c>
+      <c r="C805" t="n">
+        <v>6.19094502e-15</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B806" t="n">
+        <v>4.351833e-13</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1.034324892e-14</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B807" t="n">
+        <v>3.49006914e-13</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1.216513944e-14</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B808" t="n">
+        <v>3.05499798e-13</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1.101584862e-14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B809" t="n">
+        <v>2.590065540000001e-13</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1.083858732e-14</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B810" t="n">
+        <v>2.358945e-13</v>
+      </c>
+      <c r="C810" t="n">
+        <v>9.9478593e-15</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B811" t="n">
+        <v>2.03691096e-13</v>
+      </c>
+      <c r="C811" t="n">
+        <v>9.796454280000001e-15</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B812" t="n">
+        <v>1.83312054e-13</v>
+      </c>
+      <c r="C812" t="n">
+        <v>9.17864298e-15</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B813" t="n">
+        <v>2.10429108e-13</v>
+      </c>
+      <c r="C813" t="n">
+        <v>3.43367874e-15</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B814" t="n">
+        <v>1.6189011e-13</v>
+      </c>
+      <c r="C814" t="n">
+        <v>8.93166264e-15</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B815" t="n">
+        <v>1.469932722e-13</v>
+      </c>
+      <c r="C815" t="n">
+        <v>8.516840760000002e-15</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B816" t="n">
+        <v>1.73227464e-13</v>
+      </c>
+      <c r="C816" t="n">
+        <v>4.42265742e-15</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B817" t="n">
+        <v>1.397485476e-13</v>
+      </c>
+      <c r="C817" t="n">
+        <v>7.43819814e-15</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B818" t="n">
+        <v>1.249148286e-13</v>
+      </c>
+      <c r="C818" t="n">
+        <v>8.202207960000001e-15</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B819" t="n">
+        <v>1.269279018e-13</v>
+      </c>
+      <c r="C819" t="n">
+        <v>8.3740545e-15</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1.599814872e-13</v>
+      </c>
+      <c r="C820" t="n">
+        <v>7.722665279999999e-15</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>3.19493</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1.229978754e-13</v>
+      </c>
+      <c r="C821" t="n">
+        <v>9.101987280000001e-15</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B822" t="n">
+        <v>1.201485582e-13</v>
+      </c>
+      <c r="C822" t="n">
+        <v>8.15837724e-15</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B823" t="n">
+        <v>1.280055672e-13</v>
+      </c>
+      <c r="C823" t="n">
+        <v>7.348085640000001e-15</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B824" t="n">
+        <v>1.277420382e-13</v>
+      </c>
+      <c r="C824" t="n">
+        <v>9.26513496e-15</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B825" t="n">
+        <v>1.164370446e-13</v>
+      </c>
+      <c r="C825" t="n">
+        <v>8.14419954e-15</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1.377220176e-13</v>
+      </c>
+      <c r="C826" t="n">
+        <v>7.71592086e-15</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>3.1976</v>
+      </c>
+      <c r="B827" t="n">
+        <v>1.332689382e-13</v>
+      </c>
+      <c r="C827" t="n">
+        <v>5.0145003e-15</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B828" t="n">
+        <v>1.182376926e-13</v>
+      </c>
+      <c r="C828" t="n">
+        <v>8.489766960000001e-15</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
         <v>3.19867</v>
       </c>
-      <c r="B691" t="n">
+      <c r="B829" t="n">
         <v>1.104854544e-13</v>
       </c>
-      <c r="C691" t="n">
+      <c r="C829" t="n">
         <v>7.455659939999999e-15</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B830" t="n">
+        <v>1.131482988e-13</v>
+      </c>
+      <c r="C830" t="n">
+        <v>7.80922134e-15</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B831" t="n">
+        <v>1.061472384e-13</v>
+      </c>
+      <c r="C831" t="n">
+        <v>6.34334328e-15</v>
       </c>
     </row>
   </sheetData>
